--- a/base_VS_extension_VS_biased.xlsx
+++ b/base_VS_extension_VS_biased.xlsx
@@ -53,35 +53,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00D9E1F2"/>
-        <bgColor rgb="00D9E1F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00E2EFDA"/>
-        <bgColor rgb="00E2EFDA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FFF2CC"/>
-        <bgColor rgb="00FFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FCE4D6"/>
-        <bgColor rgb="00FCE4D6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00EDEDED"/>
-        <bgColor rgb="00EDEDED"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -110,17 +105,11 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left/>
-      <right style="thick"/>
-      <top/>
-      <bottom/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -129,13 +118,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -502,7 +487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,379 +495,1372 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="4" customWidth="1" min="2" max="2"/>
-    <col width="4" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="4" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="16" customWidth="1" min="7" max="7"/>
-    <col width="19" customWidth="1" min="8" max="8"/>
-    <col width="19" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
     <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="23" customWidth="1" min="11" max="11"/>
-    <col width="23" customWidth="1" min="12" max="12"/>
-    <col width="13" customWidth="1" min="13" max="13"/>
-    <col width="16" customWidth="1" min="14" max="14"/>
-    <col width="16" customWidth="1" min="15" max="15"/>
-    <col width="20" customWidth="1" min="16" max="16"/>
-    <col width="24" customWidth="1" min="17" max="17"/>
-    <col width="26" customWidth="1" min="18" max="18"/>
-    <col width="19" customWidth="1" min="19" max="19"/>
-    <col width="23" customWidth="1" min="20" max="20"/>
-    <col width="25" customWidth="1" min="21" max="21"/>
-    <col width="17" customWidth="1" min="22" max="22"/>
-    <col width="21" customWidth="1" min="23" max="23"/>
-    <col width="23" customWidth="1" min="24" max="24"/>
+    <col width="21" customWidth="1" min="11" max="11"/>
+    <col width="24" customWidth="1" min="12" max="12"/>
+    <col width="24" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="17" customWidth="1" min="15" max="15"/>
+    <col width="17" customWidth="1" min="16" max="16"/>
+    <col width="21" customWidth="1" min="17" max="17"/>
+    <col width="25" customWidth="1" min="18" max="18"/>
+    <col width="27" customWidth="1" min="19" max="19"/>
+    <col width="20" customWidth="1" min="20" max="20"/>
+    <col width="24" customWidth="1" min="21" max="21"/>
+    <col width="26" customWidth="1" min="22" max="22"/>
+    <col width="18" customWidth="1" min="23" max="23"/>
+    <col width="22" customWidth="1" min="24" max="24"/>
+    <col width="24" customWidth="1" min="25" max="25"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
+          <t>shape</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>k</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>K/(k*g)</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>lenCL</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>base_iadu_hpfr</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>base_iadu_pss_sum</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>base_iadu_psr_sum</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>grid_sampling_hpfr</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>grid_sampling_pss_sum</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>grid_sampling_psr_sum</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>biased_hpfr</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>biased_pss_sum</t>
         </is>
       </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>biased_psr_sum</t>
         </is>
       </c>
-      <c r="P1" s="2" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>baseline_prep_time</t>
         </is>
       </c>
-      <c r="Q1" s="2" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>gridsampling_prep_time</t>
         </is>
       </c>
-      <c r="R1" s="2" t="inlineStr">
+      <c r="S1" s="2" t="inlineStr">
         <is>
           <t>biasedsampling_prep_time</t>
         </is>
       </c>
-      <c r="S1" s="2" t="inlineStr">
+      <c r="T1" s="2" t="inlineStr">
         <is>
           <t>baseline_sel_time</t>
         </is>
       </c>
-      <c r="T1" s="2" t="inlineStr">
+      <c r="U1" s="2" t="inlineStr">
         <is>
           <t>gridsampling_sel_time</t>
         </is>
       </c>
-      <c r="U1" s="2" t="inlineStr">
+      <c r="V1" s="2" t="inlineStr">
         <is>
           <t>biasedsampling_sel_time</t>
         </is>
       </c>
-      <c r="V1" s="2" t="inlineStr">
+      <c r="W1" s="2" t="inlineStr">
         <is>
           <t>baseline_x_time</t>
         </is>
       </c>
-      <c r="W1" s="2" t="inlineStr">
+      <c r="X1" s="2" t="inlineStr">
         <is>
           <t>gridsampling_x_time</t>
         </is>
       </c>
-      <c r="X1" s="2" t="inlineStr">
+      <c r="Y1" s="2" t="inlineStr">
         <is>
           <t>biasedsampling_x_time</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>s_curve</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="C2" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="D2" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>K/(k * 2)</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="F2" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="G2" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="n">
-        <v>3456.42</v>
-      </c>
-      <c r="H2" s="5" t="n">
-        <v>6103.976</v>
-      </c>
-      <c r="I2" s="5" t="n">
-        <v>2647.556</v>
-      </c>
-      <c r="J2" s="5" t="n">
-        <v>3406.824</v>
-      </c>
-      <c r="K2" s="5" t="n">
-        <v>5983.371</v>
-      </c>
-      <c r="L2" s="5" t="n">
-        <v>2576.547</v>
-      </c>
-      <c r="M2" s="5" t="n">
-        <v>3366.467</v>
-      </c>
-      <c r="N2" s="5" t="n">
-        <v>5993.225</v>
-      </c>
-      <c r="O2" s="6" t="n">
-        <v>2626.758</v>
-      </c>
-      <c r="P2" s="7" t="n">
-        <v>1.681</v>
-      </c>
-      <c r="Q2" s="7" t="n">
-        <v>0.00129</v>
-      </c>
-      <c r="R2" s="8" t="n">
+      <c r="H2" s="4" t="n">
+        <v>3245.742</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>5665.712</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>2419.97</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>3187.676</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>5674.159</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>2486.483</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>3158.118</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>5710.214</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>2552.096</v>
+      </c>
+      <c r="Q2" s="5" t="n">
+        <v>1.704</v>
+      </c>
+      <c r="R2" s="5" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="S2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S2" s="9" t="n">
-        <v>0.00984</v>
-      </c>
-      <c r="T2" s="9" t="n">
-        <v>0.00013</v>
-      </c>
-      <c r="U2" s="10" t="n">
-        <v>3e-05</v>
-      </c>
-      <c r="V2" s="11" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="W2" s="11" t="n">
-        <v>0.00142</v>
-      </c>
-      <c r="X2" s="11" t="n">
+      <c r="T2" s="6" t="n">
+        <v>0.009140000000000001</v>
+      </c>
+      <c r="U2" s="6" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="V2" s="6" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="W2" s="7" t="n">
+        <v>1.713</v>
+      </c>
+      <c r="X2" s="7" t="n">
+        <v>0.00136</v>
+      </c>
+      <c r="Y2" s="7" t="n">
         <v>3e-05</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>s_curve</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="C3" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="D3" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>K/(k * 2)</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="F3" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="F3" s="4" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="G3" s="5" t="n">
-        <v>3456.42</v>
-      </c>
-      <c r="H3" s="5" t="n">
-        <v>6103.976</v>
-      </c>
-      <c r="I3" s="5" t="n">
-        <v>2647.556</v>
-      </c>
-      <c r="J3" s="5" t="n">
-        <v>3432.784</v>
-      </c>
-      <c r="K3" s="5" t="n">
-        <v>6166.632</v>
-      </c>
-      <c r="L3" s="5" t="n">
-        <v>2733.848</v>
-      </c>
-      <c r="M3" s="5" t="n">
-        <v>3366.467</v>
-      </c>
-      <c r="N3" s="5" t="n">
-        <v>5993.225</v>
-      </c>
-      <c r="O3" s="6" t="n">
-        <v>2626.758</v>
-      </c>
-      <c r="P3" s="7" t="n">
-        <v>1.681</v>
-      </c>
-      <c r="Q3" s="7" t="n">
-        <v>0.00124</v>
-      </c>
-      <c r="R3" s="8" t="n">
+      <c r="G3" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>3245.742</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>5665.712</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>2419.97</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>3228.096</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>5455.695</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>2227.599</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>3208.516</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>5682.895</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>2474.379</v>
+      </c>
+      <c r="Q3" s="5" t="n">
+        <v>1.793</v>
+      </c>
+      <c r="R3" s="5" t="n">
+        <v>0.00134</v>
+      </c>
+      <c r="S3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S3" s="9" t="n">
-        <v>0.00984</v>
-      </c>
-      <c r="T3" s="9" t="n">
-        <v>0.00016</v>
-      </c>
-      <c r="U3" s="10" t="n">
-        <v>3e-05</v>
-      </c>
-      <c r="V3" s="11" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="W3" s="11" t="n">
-        <v>0.00139</v>
-      </c>
-      <c r="X3" s="11" t="n">
+      <c r="T3" s="6" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="U3" s="6" t="n">
+        <v>6e-05</v>
+      </c>
+      <c r="V3" s="6" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="W3" s="7" t="n">
+        <v>1.805</v>
+      </c>
+      <c r="X3" s="7" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="Y3" s="7" t="n">
         <v>3e-05</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>s_curve</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="C4" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="D4" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>K/(k * 2)</t>
         </is>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="F4" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="F4" s="4" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>3456.42</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>6103.976</v>
-      </c>
-      <c r="I4" s="5" t="n">
-        <v>2647.556</v>
-      </c>
-      <c r="J4" s="5" t="n">
-        <v>3403.205</v>
-      </c>
-      <c r="K4" s="5" t="n">
-        <v>6179.199</v>
-      </c>
-      <c r="L4" s="5" t="n">
-        <v>2775.994</v>
-      </c>
-      <c r="M4" s="5" t="n">
-        <v>3366.467</v>
-      </c>
-      <c r="N4" s="5" t="n">
-        <v>5993.225</v>
-      </c>
-      <c r="O4" s="6" t="n">
-        <v>2626.758</v>
-      </c>
-      <c r="P4" s="7" t="n">
-        <v>1.681</v>
-      </c>
-      <c r="Q4" s="7" t="n">
-        <v>0.00127</v>
-      </c>
-      <c r="R4" s="8" t="n">
+      <c r="G4" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>3245.742</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>5665.712</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>2419.97</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>3192.397</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>5486.983</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>2294.587</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>3092.266</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>5300.154</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>2207.889</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="R4" s="5" t="n">
+        <v>0.00156</v>
+      </c>
+      <c r="S4" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S4" s="9" t="n">
-        <v>0.00984</v>
-      </c>
-      <c r="T4" s="9" t="n">
-        <v>0.00016</v>
-      </c>
-      <c r="U4" s="10" t="n">
-        <v>3e-05</v>
-      </c>
-      <c r="V4" s="11" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="W4" s="11" t="n">
-        <v>0.00143</v>
-      </c>
-      <c r="X4" s="11" t="n">
+      <c r="T4" s="6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U4" s="6" t="n">
+        <v>6e-05</v>
+      </c>
+      <c r="V4" s="6" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="W4" s="7" t="n">
+        <v>1.735</v>
+      </c>
+      <c r="X4" s="7" t="n">
+        <v>0.00162</v>
+      </c>
+      <c r="Y4" s="7" t="n">
+        <v>3e-05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>bubble</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>K/(k * 2)</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>3545.709</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>6256.743</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>2711.034</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>3531.299</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>6068.858</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>2537.559</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>3332.692</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>6415.13</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>3082.438</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>1.717</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <v>0.00129</v>
+      </c>
+      <c r="S5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="6" t="n">
+        <v>0.009350000000000001</v>
+      </c>
+      <c r="U5" s="6" t="n">
+        <v>6e-05</v>
+      </c>
+      <c r="V5" s="6" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="W5" s="7" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="X5" s="7" t="n">
+        <v>0.00135</v>
+      </c>
+      <c r="Y5" s="7" t="n">
+        <v>3e-05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>bubble</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>K/(k * 2)</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>3545.709</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>6256.743</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2711.034</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3533.361</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>6190.889</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>2657.528</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3517.929</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>6056.495</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>2538.566</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>1.697</v>
+      </c>
+      <c r="R6" s="5" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="S6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U6" s="6" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="V6" s="6" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="W6" s="7" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="X6" s="7" t="n">
+        <v>0.00245</v>
+      </c>
+      <c r="Y6" s="7" t="n">
+        <v>3e-05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>bubble</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>K/(k * 2)</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>3545.709</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>6256.743</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>2711.034</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>3536.044</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>6125.776</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>2589.732</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>3481.591</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>6582.859</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>3101.267</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>1.573</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>0.00132</v>
+      </c>
+      <c r="S7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="6" t="n">
+        <v>0.00997</v>
+      </c>
+      <c r="U7" s="6" t="n">
+        <v>6e-05</v>
+      </c>
+      <c r="V7" s="6" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="W7" s="7" t="n">
+        <v>1.583</v>
+      </c>
+      <c r="X7" s="7" t="n">
+        <v>0.00137</v>
+      </c>
+      <c r="Y7" s="7" t="n">
+        <v>3e-05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>flower</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>K/(k * 2)</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>3686.511</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>6602.037</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>2915.526</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>3585.988</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>6113.486</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>2527.497</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>3624.174</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>6833.043</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>3208.868</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>1.573</v>
+      </c>
+      <c r="R8" s="5" t="n">
+        <v>0.00129</v>
+      </c>
+      <c r="S8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="6" t="n">
+        <v>0.00915</v>
+      </c>
+      <c r="U8" s="6" t="n">
+        <v>6e-05</v>
+      </c>
+      <c r="V8" s="6" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="W8" s="7" t="n">
+        <v>1.582</v>
+      </c>
+      <c r="X8" s="7" t="n">
+        <v>0.00135</v>
+      </c>
+      <c r="Y8" s="7" t="n">
+        <v>3e-05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>flower</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>K/(k * 2)</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>3686.511</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>6602.037</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>2915.526</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>3653.317</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>6511.302</v>
+      </c>
+      <c r="M9" s="4" t="n">
+        <v>2857.986</v>
+      </c>
+      <c r="N9" s="4" t="n">
+        <v>3653.633</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>6439.572</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>2785.939</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>1.569</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <v>0.00136</v>
+      </c>
+      <c r="S9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="6" t="n">
+        <v>0.00946</v>
+      </c>
+      <c r="U9" s="6" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="V9" s="6" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="W9" s="7" t="n">
+        <v>1.579</v>
+      </c>
+      <c r="X9" s="7" t="n">
+        <v>0.00141</v>
+      </c>
+      <c r="Y9" s="7" t="n">
+        <v>3e-05</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>flower</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>K/(k * 2)</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>3686.511</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>6602.037</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>2915.526</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>3663.009</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>6656.308</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>2993.299</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>3626.86</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>6738.28</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>3111.42</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>1.578</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <v>0.00132</v>
+      </c>
+      <c r="S10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="6" t="n">
+        <v>0.009310000000000001</v>
+      </c>
+      <c r="U10" s="6" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="V10" s="6" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="W10" s="7" t="n">
+        <v>1.587</v>
+      </c>
+      <c r="X10" s="7" t="n">
+        <v>0.00137</v>
+      </c>
+      <c r="Y10" s="7" t="n">
+        <v>3e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>disk</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>K/(k * 2)</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>3164.678</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <v>5547.664</v>
+      </c>
+      <c r="J11" s="4" t="n">
+        <v>2382.986</v>
+      </c>
+      <c r="K11" s="4" t="n">
+        <v>3128.277</v>
+      </c>
+      <c r="L11" s="4" t="n">
+        <v>5769.371</v>
+      </c>
+      <c r="M11" s="4" t="n">
+        <v>2641.094</v>
+      </c>
+      <c r="N11" s="4" t="n">
+        <v>3111.841</v>
+      </c>
+      <c r="O11" s="4" t="n">
+        <v>5587.242</v>
+      </c>
+      <c r="P11" s="4" t="n">
+        <v>2475.401</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>1.588</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>0.00141</v>
+      </c>
+      <c r="S11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U11" s="6" t="n">
+        <v>4e-05</v>
+      </c>
+      <c r="V11" s="6" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="W11" s="7" t="n">
+        <v>1.598</v>
+      </c>
+      <c r="X11" s="7" t="n">
+        <v>0.00145</v>
+      </c>
+      <c r="Y11" s="7" t="n">
+        <v>2e-05</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>disk</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>K/(k * 2)</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v>3164.678</v>
+      </c>
+      <c r="I12" s="4" t="n">
+        <v>5547.664</v>
+      </c>
+      <c r="J12" s="4" t="n">
+        <v>2382.986</v>
+      </c>
+      <c r="K12" s="4" t="n">
+        <v>3100.218</v>
+      </c>
+      <c r="L12" s="4" t="n">
+        <v>5422.947</v>
+      </c>
+      <c r="M12" s="4" t="n">
+        <v>2322.729</v>
+      </c>
+      <c r="N12" s="4" t="n">
+        <v>3020.272</v>
+      </c>
+      <c r="O12" s="4" t="n">
+        <v>5370.9</v>
+      </c>
+      <c r="P12" s="4" t="n">
+        <v>2350.628</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="R12" s="5" t="n">
+        <v>0.00138</v>
+      </c>
+      <c r="S12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="6" t="n">
+        <v>0.00975</v>
+      </c>
+      <c r="U12" s="6" t="n">
+        <v>6e-05</v>
+      </c>
+      <c r="V12" s="6" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="W12" s="7" t="n">
+        <v>1.634</v>
+      </c>
+      <c r="X12" s="7" t="n">
+        <v>0.00144</v>
+      </c>
+      <c r="Y12" s="7" t="n">
+        <v>2e-05</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>disk</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>K/(k * 2)</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <v>3164.678</v>
+      </c>
+      <c r="I13" s="4" t="n">
+        <v>5547.664</v>
+      </c>
+      <c r="J13" s="4" t="n">
+        <v>2382.986</v>
+      </c>
+      <c r="K13" s="4" t="n">
+        <v>3043.093</v>
+      </c>
+      <c r="L13" s="4" t="n">
+        <v>5785.485</v>
+      </c>
+      <c r="M13" s="4" t="n">
+        <v>2742.392</v>
+      </c>
+      <c r="N13" s="4" t="n">
+        <v>3086.005</v>
+      </c>
+      <c r="O13" s="4" t="n">
+        <v>5812.145</v>
+      </c>
+      <c r="P13" s="4" t="n">
+        <v>2726.14</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R13" s="5" t="n">
+        <v>0.00141</v>
+      </c>
+      <c r="S13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" s="6" t="n">
+        <v>0.00976</v>
+      </c>
+      <c r="U13" s="6" t="n">
+        <v>6e-05</v>
+      </c>
+      <c r="V13" s="6" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="W13" s="7" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X13" s="7" t="n">
+        <v>0.00146</v>
+      </c>
+      <c r="Y13" s="7" t="n">
+        <v>2e-05</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>snake</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>K/(k * 2)</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>3639.46</v>
+      </c>
+      <c r="I14" s="4" t="n">
+        <v>6447.722</v>
+      </c>
+      <c r="J14" s="4" t="n">
+        <v>2808.262</v>
+      </c>
+      <c r="K14" s="4" t="n">
+        <v>3599.631</v>
+      </c>
+      <c r="L14" s="4" t="n">
+        <v>6547.081</v>
+      </c>
+      <c r="M14" s="4" t="n">
+        <v>2947.45</v>
+      </c>
+      <c r="N14" s="4" t="n">
+        <v>3593.947</v>
+      </c>
+      <c r="O14" s="4" t="n">
+        <v>6247.691</v>
+      </c>
+      <c r="P14" s="4" t="n">
+        <v>2653.744</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>1.558</v>
+      </c>
+      <c r="R14" s="5" t="n">
+        <v>0.00144</v>
+      </c>
+      <c r="S14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" s="6" t="n">
+        <v>0.00936</v>
+      </c>
+      <c r="U14" s="6" t="n">
+        <v>4e-05</v>
+      </c>
+      <c r="V14" s="6" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="W14" s="7" t="n">
+        <v>1.567</v>
+      </c>
+      <c r="X14" s="7" t="n">
+        <v>0.00149</v>
+      </c>
+      <c r="Y14" s="7" t="n">
+        <v>3e-05</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>snake</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>K/(k * 2)</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="H15" s="4" t="n">
+        <v>3639.46</v>
+      </c>
+      <c r="I15" s="4" t="n">
+        <v>6447.722</v>
+      </c>
+      <c r="J15" s="4" t="n">
+        <v>2808.262</v>
+      </c>
+      <c r="K15" s="4" t="n">
+        <v>3634.527</v>
+      </c>
+      <c r="L15" s="4" t="n">
+        <v>6546.765</v>
+      </c>
+      <c r="M15" s="4" t="n">
+        <v>2912.237</v>
+      </c>
+      <c r="N15" s="4" t="n">
+        <v>3584.235</v>
+      </c>
+      <c r="O15" s="4" t="n">
+        <v>6464.068</v>
+      </c>
+      <c r="P15" s="4" t="n">
+        <v>2879.832</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>1.614</v>
+      </c>
+      <c r="R15" s="5" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="S15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" s="6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U15" s="6" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="V15" s="6" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="W15" s="7" t="n">
+        <v>1.624</v>
+      </c>
+      <c r="X15" s="7" t="n">
+        <v>0.00155</v>
+      </c>
+      <c r="Y15" s="7" t="n">
+        <v>3e-05</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>snake</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>K/(k * 2)</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>3639.46</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v>6447.722</v>
+      </c>
+      <c r="J16" s="4" t="n">
+        <v>2808.262</v>
+      </c>
+      <c r="K16" s="4" t="n">
+        <v>3620.399</v>
+      </c>
+      <c r="L16" s="4" t="n">
+        <v>6395.463</v>
+      </c>
+      <c r="M16" s="4" t="n">
+        <v>2775.064</v>
+      </c>
+      <c r="N16" s="4" t="n">
+        <v>3326.489</v>
+      </c>
+      <c r="O16" s="4" t="n">
+        <v>6205.551</v>
+      </c>
+      <c r="P16" s="4" t="n">
+        <v>2879.062</v>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>1.634</v>
+      </c>
+      <c r="R16" s="5" t="n">
+        <v>0.00136</v>
+      </c>
+      <c r="S16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" s="6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U16" s="6" t="n">
+        <v>6e-05</v>
+      </c>
+      <c r="V16" s="6" t="n">
+        <v>3e-05</v>
+      </c>
+      <c r="W16" s="7" t="n">
+        <v>1.644</v>
+      </c>
+      <c r="X16" s="7" t="n">
+        <v>0.00141</v>
+      </c>
+      <c r="Y16" s="7" t="n">
         <v>3e-05</v>
       </c>
     </row>
